--- a/results/exp4.xlsx
+++ b/results/exp4.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam Fragkiadakis\Workspace\liver-baseline-registration\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96D17874-0BA7-45B4-907B-D512A0CE2708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5153F383-24E4-4B67-B3B4-F82BDC7075EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9795" yWindow="4185" windowWidth="16515" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="liver" sheetId="1" r:id="rId1"/>
-    <sheet name="tumor" sheetId="2" r:id="rId2"/>
+    <sheet name="liver.nii.gz" sheetId="1" r:id="rId1"/>
+    <sheet name="tumor.nii.gz" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -482,14 +482,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" activeCellId="1" sqref="C14 D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
@@ -510,13 +510,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.34548000000000001</v>
+        <v>0.32956999999999997</v>
       </c>
       <c r="C2">
-        <v>0.78181</v>
+        <v>0.80632999999999999</v>
       </c>
       <c r="D2">
-        <v>0.88400999999999996</v>
+        <v>0.86638999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,13 +524,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>2.8979999999999999E-2</v>
+        <v>2.6280000000000001E-2</v>
       </c>
       <c r="C3">
-        <v>0.56667000000000001</v>
+        <v>0.56674999999999998</v>
       </c>
       <c r="D3">
-        <v>0.70170999999999994</v>
+        <v>0.69406000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,13 +538,13 @@
         <v>5</v>
       </c>
       <c r="B4">
-        <v>0.21063999999999999</v>
+        <v>0.20105999999999999</v>
       </c>
       <c r="C4">
-        <v>0.39872000000000002</v>
+        <v>0.42122999999999999</v>
       </c>
       <c r="D4">
-        <v>0.69887999999999995</v>
+        <v>0.77717999999999998</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -552,13 +552,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.33005000000000001</v>
+        <v>0.32612999999999998</v>
       </c>
       <c r="C5">
-        <v>0.91415999999999997</v>
+        <v>0.90103999999999995</v>
       </c>
       <c r="D5">
-        <v>0.92847999999999997</v>
+        <v>0.92710000000000004</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.76812000000000002</v>
+        <v>0.76502000000000003</v>
       </c>
       <c r="D6">
-        <v>0.89173999999999998</v>
+        <v>0.88417999999999997</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,13 +580,13 @@
         <v>8</v>
       </c>
       <c r="B7">
-        <v>2.1659999999999999E-2</v>
+        <v>1.78E-2</v>
       </c>
       <c r="C7">
-        <v>0.82191000000000003</v>
+        <v>0.82889000000000002</v>
       </c>
       <c r="D7">
-        <v>0.85611000000000004</v>
+        <v>0.84999000000000002</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -594,13 +594,13 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>0.34647</v>
+        <v>0.33789999999999998</v>
       </c>
       <c r="C8">
-        <v>0.74404999999999999</v>
+        <v>0.78425999999999996</v>
       </c>
       <c r="D8">
-        <v>0.89878999999999998</v>
+        <v>0.90064999999999995</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -608,13 +608,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.17655000000000001</v>
+        <v>0.16142999999999999</v>
       </c>
       <c r="C9">
-        <v>0.63031000000000004</v>
+        <v>0.53746000000000005</v>
       </c>
       <c r="D9">
-        <v>0.83931</v>
+        <v>0.83374999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -622,13 +622,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.39548</v>
+        <v>0.38966000000000001</v>
       </c>
       <c r="C10">
-        <v>0.75258999999999998</v>
+        <v>0.74434</v>
       </c>
       <c r="D10">
-        <v>0.82157999999999998</v>
+        <v>0.81805000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -636,13 +636,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>0.10351</v>
+        <v>9.8199999999999996E-2</v>
       </c>
       <c r="C11">
-        <v>0.71181000000000005</v>
+        <v>0.72874000000000005</v>
       </c>
       <c r="D11">
-        <v>0.87770999999999999</v>
+        <v>0.88966999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -653,10 +653,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.39872000000000002</v>
+        <v>0.42122999999999999</v>
       </c>
       <c r="D12">
-        <v>0.69887999999999995</v>
+        <v>0.69406000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,13 +664,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.39548</v>
+        <v>0.38966000000000001</v>
       </c>
       <c r="C13">
-        <v>0.91415999999999997</v>
+        <v>0.90103999999999995</v>
       </c>
       <c r="D13">
-        <v>0.92847999999999997</v>
+        <v>0.92710000000000004</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -678,13 +678,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>0.19619166666666671</v>
+        <v>0.18980749999999999</v>
       </c>
       <c r="C14" s="2">
-        <v>0.70025249999999994</v>
+        <v>0.70052750000000008</v>
       </c>
       <c r="D14" s="2">
-        <v>0.8354733333333334</v>
+        <v>0.83851500000000001</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -692,13 +692,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0.19619166666666671</v>
+        <v>0.18980749999999999</v>
       </c>
       <c r="C15">
-        <v>0.74404999999999999</v>
+        <v>0.74434</v>
       </c>
       <c r="D15">
-        <v>0.85611000000000004</v>
+        <v>0.84999000000000002</v>
       </c>
     </row>
   </sheetData>
@@ -711,14 +711,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C14" activeCellId="1" sqref="D14 C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -738,13 +739,13 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>0.15901999999999999</v>
+        <v>0.13816000000000001</v>
       </c>
       <c r="C2">
-        <v>0.59989000000000003</v>
+        <v>0.68960999999999995</v>
       </c>
       <c r="D2">
-        <v>0.80967999999999996</v>
+        <v>0.74992999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -755,10 +756,10 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.47855999999999999</v>
+        <v>0.46988999999999997</v>
       </c>
       <c r="D3">
-        <v>0.59797999999999996</v>
+        <v>0.60265999999999997</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -769,10 +770,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>0.11070000000000001</v>
+        <v>0.11624</v>
       </c>
       <c r="D4">
-        <v>0.31437999999999999</v>
+        <v>0.43231000000000003</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,13 +781,13 @@
         <v>6</v>
       </c>
       <c r="B5">
-        <v>0.25040000000000001</v>
+        <v>0.24221999999999999</v>
       </c>
       <c r="C5">
-        <v>0.92820000000000003</v>
+        <v>0.89371</v>
       </c>
       <c r="D5">
-        <v>0.90881999999999996</v>
+        <v>0.90003</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -797,10 +798,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>0.81</v>
+        <v>0.81328999999999996</v>
       </c>
       <c r="D6">
-        <v>0.83389000000000002</v>
+        <v>0.80223</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -811,10 +812,10 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>0.11944</v>
+        <v>0.11824999999999999</v>
       </c>
       <c r="D7">
-        <v>5.4870000000000002E-2</v>
+        <v>3.1359999999999999E-2</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -825,10 +826,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>0.45800000000000002</v>
+        <v>0.48979</v>
       </c>
       <c r="D8">
-        <v>0.75736999999999999</v>
+        <v>0.73196000000000006</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -836,13 +837,13 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>0.11815000000000001</v>
+        <v>0.10535</v>
       </c>
       <c r="C9">
-        <v>0.60762000000000005</v>
+        <v>0.59228999999999998</v>
       </c>
       <c r="D9">
-        <v>0.7288</v>
+        <v>0.72536</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -850,13 +851,13 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>0.26565</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C10">
-        <v>0.63680999999999999</v>
+        <v>0.62980999999999998</v>
       </c>
       <c r="D10">
-        <v>0.72165999999999997</v>
+        <v>0.72579000000000005</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -864,13 +865,13 @@
         <v>12</v>
       </c>
       <c r="B11">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C11">
-        <v>0.40466999999999997</v>
+        <v>0.44905</v>
       </c>
       <c r="D11">
-        <v>0.63005</v>
+        <v>0.63124000000000002</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -881,10 +882,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>0.11070000000000001</v>
+        <v>0.11624</v>
       </c>
       <c r="D12">
-        <v>5.4870000000000002E-2</v>
+        <v>3.1359999999999999E-2</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -892,13 +893,13 @@
         <v>14</v>
       </c>
       <c r="B13">
-        <v>0.26565</v>
+        <v>0.25814999999999999</v>
       </c>
       <c r="C13">
-        <v>0.92820000000000003</v>
+        <v>0.89371</v>
       </c>
       <c r="D13">
-        <v>0.90881999999999996</v>
+        <v>0.90003</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -906,13 +907,13 @@
         <v>15</v>
       </c>
       <c r="B14">
-        <v>8.8241666666666663E-2</v>
+        <v>8.3502499999999993E-2</v>
       </c>
       <c r="C14" s="2">
-        <v>0.51606583333333333</v>
+        <v>0.52265666666666666</v>
       </c>
       <c r="D14" s="2">
-        <v>0.61009916666666664</v>
+        <v>0.60535499999999998</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -920,13 +921,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>3.0000000000000001E-5</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>0.51606583333333333</v>
+        <v>0.52265666666666666</v>
       </c>
       <c r="D15">
-        <v>0.72165999999999997</v>
+        <v>0.72536</v>
       </c>
     </row>
   </sheetData>
